--- a/data_year/zb/综合/民族自治地方/民族自治地方对外经济.xlsx
+++ b/data_year/zb/综合/民族自治地方/民族自治地方对外经济.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,160 +453,64 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.67788</v>
+        <v>331.441152</v>
       </c>
       <c r="C2" t="n">
-        <v>85.64098</v>
+        <v>533.264832</v>
       </c>
       <c r="D2" t="n">
-        <v>35.9631</v>
+        <v>201.82368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.4</v>
+        <v>425.675023</v>
       </c>
       <c r="C3" t="n">
-        <v>221.5</v>
+        <v>698.426139</v>
       </c>
       <c r="D3" t="n">
-        <v>95.09999999999999</v>
+        <v>272.751116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.9</v>
+        <v>512.981851</v>
       </c>
       <c r="C4" t="n">
-        <v>275.2</v>
+        <v>821.121678</v>
       </c>
       <c r="D4" t="n">
-        <v>103.5</v>
+        <v>308.139827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.906665</v>
+        <v>608.77119814</v>
       </c>
       <c r="C5" t="n">
-        <v>381.080221</v>
+        <v>922.75239655</v>
       </c>
       <c r="D5" t="n">
-        <v>135.347606</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>367.939861</v>
-      </c>
-      <c r="C6" t="n">
-        <v>531.364015</v>
-      </c>
-      <c r="D6" t="n">
-        <v>163.424154</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>265.719384</v>
-      </c>
-      <c r="C7" t="n">
-        <v>415.809117</v>
-      </c>
-      <c r="D7" t="n">
-        <v>150.089733</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>331.441152</v>
-      </c>
-      <c r="C8" t="n">
-        <v>533.264832</v>
-      </c>
-      <c r="D8" t="n">
-        <v>201.82368</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>425.675023</v>
-      </c>
-      <c r="C9" t="n">
-        <v>698.426139</v>
-      </c>
-      <c r="D9" t="n">
-        <v>272.751116</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>512.981851</v>
-      </c>
-      <c r="C10" t="n">
-        <v>821.121678</v>
-      </c>
-      <c r="D10" t="n">
-        <v>308.139827</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>608.77119814</v>
-      </c>
-      <c r="C11" t="n">
-        <v>922.75239655</v>
-      </c>
-      <c r="D11" t="n">
         <v>313.98119841</v>
       </c>
     </row>
